--- a/Plot_tool/xlsx/TPHLCT3_16x16.xlsx
+++ b/Plot_tool/xlsx/TPHLCT3_16x16.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,6 +21,7 @@
     <sheet name="N8RGB" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="N6RGB" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="Trumpet" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Sailboat256" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="8">
   <si>
     <t xml:space="preserve">bpp</t>
   </si>
@@ -499,17 +500,17 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="B2:B14 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -823,16 +824,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="1" sqref="B2:B14 D5"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1142,16 +1143,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="1" sqref="B2:B14 H27"/>
+      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,16 +1462,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="235" zoomScaleNormal="235" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="B2:B14 D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,17 +1780,17 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="235" zoomScaleNormal="235" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="235" zoomScaleNormal="235" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2078,6 +2079,325 @@
       </c>
       <c r="F14" s="1" t="n">
         <v>3539.97412109375</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="235" zoomScaleNormal="235" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="10" t="n">
+        <v>196.171875</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>23.1120388578132</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.635109337647523</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>46087.453125</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>8552.15234375</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>157.734375</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>24.0821523327093</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.679383603519254</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>45871.0546875</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>10727.0673828125</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>131.953125</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>24.9374425175943</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.711065613904953</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>42356.80078125</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>9999.6708984375</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>112.734375</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>25.6473499209061</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.736491905919588</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>40072.3671875</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>9743.755859375</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>97.734375</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>26.3895867479471</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.763123822072721</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>38819.7578125</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>9708.6806640625</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="10" t="n">
+        <v>85.546875</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>27.0712648465479</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.783813690798123</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>37000.421875</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>9402.8388671875</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="10" t="n">
+        <v>77.109375</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>27.6261403396077</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.798176303417678</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>33687.841796875</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>8545.0126953125</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>69.140625</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>28.1957584934222</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.814778744476167</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>31668.99609375</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>7942.064453125</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>62.578125</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>28.7521394375284</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.830241001600191</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>30287.595703125</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>8003.0048828125</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>56.953125</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>29.2982504000407</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.842949291729651</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>29358.384765625</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>8189.806640625</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>51.796875</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>29.8409597032367</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0.857060606981936</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>28460.56640625</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>8261.576171875</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>47.578125</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>30.3236406304242</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0.865798811061198</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>27913.287109375</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>7873.1884765625</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>43.828125</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>30.8200697276871</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0.875429812042162</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>26137.654296875</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>7445.623046875</v>
       </c>
     </row>
   </sheetData>
@@ -2099,16 +2419,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="B2:B14 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2422,16 +2742,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I26" activeCellId="1" sqref="B2:B14 I26"/>
+      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2745,16 +3065,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="B2:B14 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3068,16 +3388,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="B2:B14 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3391,16 +3711,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="B2:B14 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3714,16 +4034,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="B2:B14 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4037,16 +4357,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="B2:B14 H9"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4360,16 +4680,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="1" sqref="B2:B14 H14"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
